--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,58 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
@@ -109,12 +106,12 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -127,10 +124,16 @@
     <t>important</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -613,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,10 +634,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -663,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8939393939393939</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -831,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.5862068965517241</v>
@@ -863,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5600000000000001</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -963,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -981,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.06830601092896176</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L11">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1023</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1016,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1031,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.01355421686746988</v>
+        <v>0.5</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>655</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1081,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.006336405529953917</v>
+        <v>0.07012750455373407</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1725</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1133,19 +1136,43 @@
       <c r="H14">
         <v>10</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>0.01461038961038961</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>607</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4927536231884058</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1157,7 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0.00576036866359447</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1726</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1165,13 +1216,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4285714285714285</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1183,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1191,13 +1242,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4042553191489361</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1209,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1217,13 +1268,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.391304347826087</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1235,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1243,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3461538461538461</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1261,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1269,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3428571428571429</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1287,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1295,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2564102564102564</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1313,33 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
